--- a/1.Plan projekta/KlađenjeAnaliza.xlsx
+++ b/1.Plan projekta/KlađenjeAnaliza.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateo_03bcn02\OneDrive\Dokumenti\Projektiranje informacijskih sustava\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateo_03bcn02\Projektiranje informacijskih sustava\1.Plan projekta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713C28CA-0536-42C8-BDD8-8267958B9BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C543778A-2B10-4810-A0E3-76D41BE2CC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E23BFFE-7382-4B38-BF95-C9E3F49E1726}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E23BFFE-7382-4B38-BF95-C9E3F49E1726}"/>
   </bookViews>
   <sheets>
     <sheet name="Analiza izvedivosti" sheetId="1" r:id="rId1"/>
@@ -35,15 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
   <si>
     <t>Analiza izvedivosti</t>
   </si>
   <si>
     <t>Mobilna aplikacija</t>
-  </si>
-  <si>
-    <t>Nadogradnja</t>
   </si>
   <si>
     <t>Operativna</t>
@@ -250,7 +247,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -278,21 +275,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -651,18 +633,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
@@ -671,8 +653,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -681,106 +663,96 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1098,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867CCFAE-21F7-4E11-BD08-E4F512D35AE1}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1119,580 +1091,414 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="27"/>
+      <c r="J1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="11">
-        <v>2</v>
-      </c>
-      <c r="D2" s="12">
-        <v>1</v>
-      </c>
-      <c r="E2" s="12">
-        <v>2</v>
-      </c>
-      <c r="F2" s="12">
-        <v>2</v>
-      </c>
-      <c r="G2" s="12">
-        <v>2</v>
-      </c>
-      <c r="H2" s="12">
-        <v>3</v>
-      </c>
-      <c r="I2" s="12">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
+      <c r="A2" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="15">
+        <v>3</v>
+      </c>
+      <c r="D2" s="16">
+        <v>3</v>
+      </c>
+      <c r="E2" s="16">
+        <v>3</v>
+      </c>
+      <c r="F2" s="16">
+        <v>2</v>
+      </c>
+      <c r="G2" s="16">
+        <v>1</v>
+      </c>
+      <c r="H2" s="16">
+        <v>1</v>
+      </c>
+      <c r="I2" s="16">
+        <v>1</v>
+      </c>
+      <c r="J2" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="11">
+        <v>3</v>
+      </c>
+      <c r="E3" s="11">
+        <v>3</v>
+      </c>
+      <c r="F3" s="11">
+        <v>2</v>
+      </c>
+      <c r="G3" s="11">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11">
+        <v>1</v>
+      </c>
+      <c r="I3" s="11">
+        <v>2</v>
+      </c>
+      <c r="J3" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="32"/>
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="13">
-        <v>2</v>
-      </c>
-      <c r="E3" s="13">
-        <v>2</v>
-      </c>
-      <c r="F3" s="13">
-        <v>2</v>
-      </c>
-      <c r="G3" s="13">
-        <v>1</v>
-      </c>
-      <c r="H3" s="13">
-        <v>3</v>
-      </c>
-      <c r="I3" s="13">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11">
+        <v>3</v>
+      </c>
+      <c r="E4" s="11">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11">
+        <v>3</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11">
+        <v>1</v>
+      </c>
+      <c r="I4" s="11">
+        <v>2</v>
+      </c>
+      <c r="J4" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33"/>
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="13">
-        <v>2</v>
-      </c>
-      <c r="E4" s="13">
-        <v>2</v>
-      </c>
-      <c r="F4" s="13">
-        <v>2</v>
-      </c>
-      <c r="G4" s="13">
-        <v>3</v>
-      </c>
-      <c r="H4" s="13">
-        <v>3</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="32"/>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="12">
+        <v>3</v>
+      </c>
+      <c r="D5" s="13">
+        <v>3</v>
+      </c>
+      <c r="E5" s="13">
+        <v>3</v>
+      </c>
+      <c r="F5" s="13">
+        <v>3</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13">
+        <v>2</v>
+      </c>
+      <c r="J5" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="14">
-        <v>2</v>
-      </c>
-      <c r="D5" s="15">
-        <v>1</v>
-      </c>
-      <c r="E5" s="15">
-        <v>1</v>
-      </c>
-      <c r="F5" s="15">
-        <v>2</v>
-      </c>
-      <c r="G5" s="15">
-        <v>2</v>
-      </c>
-      <c r="H5" s="15">
-        <v>2</v>
-      </c>
-      <c r="I5" s="15">
-        <v>0</v>
-      </c>
-      <c r="J5" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="33" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="20">
+        <v>2.75</v>
+      </c>
+      <c r="D6" s="20">
+        <v>3</v>
+      </c>
+      <c r="E6" s="20">
+        <v>3</v>
+      </c>
+      <c r="F6" s="20">
+        <f>AVERAGE(F2:F5)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G6" s="20">
+        <v>1</v>
+      </c>
+      <c r="H6" s="20">
+        <v>1</v>
+      </c>
+      <c r="I6" s="20">
+        <v>1.75</v>
+      </c>
+      <c r="J6" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16">
+        <v>2</v>
+      </c>
+      <c r="G7" s="16">
+        <v>2</v>
+      </c>
+      <c r="H7" s="16">
+        <v>3</v>
+      </c>
+      <c r="I7" s="16">
+        <v>3</v>
+      </c>
+      <c r="J7" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="32"/>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="11">
+        <v>2</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11">
+        <v>3</v>
+      </c>
+      <c r="G8" s="11">
+        <v>3</v>
+      </c>
+      <c r="H8" s="11">
+        <v>2</v>
+      </c>
+      <c r="I8" s="11">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
+      <c r="B9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11">
+        <v>3</v>
+      </c>
+      <c r="H9" s="11">
+        <v>2</v>
+      </c>
+      <c r="I9" s="11">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="33"/>
+      <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="12">
+        <v>3</v>
+      </c>
+      <c r="D10" s="13">
+        <v>3</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13">
+        <v>2</v>
+      </c>
+      <c r="G10" s="13">
+        <v>2</v>
+      </c>
+      <c r="H10" s="13">
+        <v>3</v>
+      </c>
+      <c r="I10" s="13">
+        <v>2</v>
+      </c>
+      <c r="J10" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="20">
+        <f>AVERAGE(C7:C10)</f>
+        <v>2</v>
+      </c>
+      <c r="D11" s="20">
+        <f>AVERAGE(D7:D10)</f>
+        <v>1.75</v>
+      </c>
+      <c r="E11" s="20">
+        <v>1</v>
+      </c>
+      <c r="F11" s="20">
+        <f>AVERAGE(F7:F10)</f>
+        <v>2</v>
+      </c>
+      <c r="G11" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="H11" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="I11" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="J11" s="20">
+        <f>AVERAGE(J7:J10)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="22">
-        <v>2</v>
-      </c>
-      <c r="D6" s="22">
-        <v>1.5</v>
-      </c>
-      <c r="E6" s="22">
-        <v>1.75</v>
-      </c>
-      <c r="F6" s="22">
-        <v>2</v>
-      </c>
-      <c r="G6" s="22">
-        <f>AVERAGE(G2:G5)</f>
-        <v>2</v>
-      </c>
-      <c r="H6" s="22">
-        <v>2.75</v>
-      </c>
-      <c r="I6" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="22">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="C13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="32"/>
+      <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="17">
-        <v>3</v>
-      </c>
-      <c r="D7" s="18">
-        <v>3</v>
-      </c>
-      <c r="E7" s="18">
-        <v>3</v>
-      </c>
-      <c r="F7" s="18">
-        <v>2</v>
-      </c>
-      <c r="G7" s="18">
-        <v>1</v>
-      </c>
-      <c r="H7" s="18">
-        <v>1</v>
-      </c>
-      <c r="I7" s="18">
-        <v>1</v>
-      </c>
-      <c r="J7" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3</v>
-      </c>
-      <c r="D8" s="13">
-        <v>3</v>
-      </c>
-      <c r="E8" s="13">
-        <v>3</v>
-      </c>
-      <c r="F8" s="13">
-        <v>2</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1</v>
-      </c>
-      <c r="H8" s="13">
-        <v>1</v>
-      </c>
-      <c r="I8" s="13">
-        <v>2</v>
-      </c>
-      <c r="J8" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2</v>
-      </c>
-      <c r="D9" s="13">
-        <v>3</v>
-      </c>
-      <c r="E9" s="13">
-        <v>3</v>
-      </c>
-      <c r="F9" s="13">
-        <v>3</v>
-      </c>
-      <c r="G9" s="13">
-        <v>1</v>
-      </c>
-      <c r="H9" s="13">
-        <v>1</v>
-      </c>
-      <c r="I9" s="13">
-        <v>2</v>
-      </c>
-      <c r="J9" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="32"/>
-      <c r="B10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="14">
-        <v>3</v>
-      </c>
-      <c r="D10" s="15">
-        <v>3</v>
-      </c>
-      <c r="E10" s="15">
-        <v>3</v>
-      </c>
-      <c r="F10" s="15">
-        <v>3</v>
-      </c>
-      <c r="G10" s="15">
-        <v>1</v>
-      </c>
-      <c r="H10" s="15">
-        <v>1</v>
-      </c>
-      <c r="I10" s="15">
-        <v>2</v>
-      </c>
-      <c r="J10" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="22">
-        <v>2.75</v>
-      </c>
-      <c r="D11" s="22">
-        <v>3</v>
-      </c>
-      <c r="E11" s="22">
-        <v>3</v>
-      </c>
-      <c r="F11" s="22">
-        <f>AVERAGE(F7:F10)</f>
-        <v>2.5</v>
-      </c>
-      <c r="G11" s="22">
-        <v>1</v>
-      </c>
-      <c r="H11" s="22">
-        <v>1</v>
-      </c>
-      <c r="I11" s="22">
-        <v>1.75</v>
-      </c>
-      <c r="J11" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="17">
-        <v>1</v>
-      </c>
-      <c r="D12" s="18">
-        <v>1</v>
-      </c>
-      <c r="E12" s="18">
-        <v>1</v>
-      </c>
-      <c r="F12" s="18">
-        <v>2</v>
-      </c>
-      <c r="G12" s="18">
-        <v>2</v>
-      </c>
-      <c r="H12" s="18">
-        <v>3</v>
-      </c>
-      <c r="I12" s="18">
-        <v>3</v>
-      </c>
-      <c r="J12" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" s="13">
-        <v>2</v>
-      </c>
-      <c r="E13" s="13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="13">
-        <v>3</v>
-      </c>
-      <c r="G13" s="13">
-        <v>3</v>
-      </c>
-      <c r="H13" s="13">
-        <v>2</v>
-      </c>
-      <c r="I13" s="13">
-        <v>3</v>
-      </c>
-      <c r="J13" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-      <c r="D14" s="13">
-        <v>1</v>
-      </c>
-      <c r="E14" s="13">
-        <v>1</v>
-      </c>
-      <c r="F14" s="13">
-        <v>1</v>
-      </c>
-      <c r="G14" s="13">
-        <v>3</v>
-      </c>
-      <c r="H14" s="13">
-        <v>2</v>
-      </c>
-      <c r="I14" s="13">
-        <v>2</v>
-      </c>
-      <c r="J14" s="4">
-        <v>3</v>
-      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="23"/>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="32"/>
-      <c r="B15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="14">
-        <v>3</v>
-      </c>
-      <c r="D15" s="15">
-        <v>3</v>
-      </c>
-      <c r="E15" s="15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="15">
-        <v>2</v>
-      </c>
-      <c r="G15" s="15">
-        <v>2</v>
-      </c>
-      <c r="H15" s="15">
-        <v>3</v>
-      </c>
-      <c r="I15" s="15">
-        <v>2</v>
-      </c>
-      <c r="J15" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="22">
-        <f>AVERAGE(C12:C15)</f>
-        <v>2</v>
-      </c>
-      <c r="D16" s="22">
-        <f>AVERAGE(D12:D15)</f>
-        <v>1.75</v>
-      </c>
-      <c r="E16" s="22">
-        <v>1</v>
-      </c>
-      <c r="F16" s="22">
-        <f>AVERAGE(F12:F15)</f>
-        <v>2</v>
-      </c>
-      <c r="G16" s="22">
-        <v>2.5</v>
-      </c>
-      <c r="H16" s="22">
-        <v>2.5</v>
-      </c>
-      <c r="I16" s="22">
-        <v>2.5</v>
-      </c>
-      <c r="J16" s="22">
-        <f>AVERAGE(J12:J15)</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="32"/>
-      <c r="B20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="J20" s="26"/>
+      <c r="A15" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="6">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1702,7 +1508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3ABB857-AED3-4D6A-8B2D-0D371DA6A040}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
@@ -1715,323 +1521,323 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="25">
+        <v>300</v>
+      </c>
+      <c r="C3" s="25">
+        <v>50</v>
+      </c>
+      <c r="D3" s="25">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="25">
+        <v>400</v>
+      </c>
+      <c r="C4" s="25">
+        <v>45</v>
+      </c>
+      <c r="D4" s="25">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="25">
+        <v>200</v>
+      </c>
+      <c r="C5" s="25">
+        <v>45</v>
+      </c>
+      <c r="D5" s="25">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="25">
+        <v>100</v>
+      </c>
+      <c r="C6" s="25">
+        <v>30</v>
+      </c>
+      <c r="D6" s="25">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="25">
+        <v>150</v>
+      </c>
+      <c r="C7" s="25">
+        <v>25</v>
+      </c>
+      <c r="D7" s="25">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="25">
+        <v>5</v>
+      </c>
+      <c r="C12" s="25">
+        <v>2500</v>
+      </c>
+      <c r="D12" s="25">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="25">
+        <v>3</v>
+      </c>
+      <c r="C13" s="25">
+        <v>2000</v>
+      </c>
+      <c r="D13" s="25">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="25">
+        <v>1500</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="25">
+        <v>2500</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="25">
+        <v>5</v>
+      </c>
+      <c r="C24" s="25">
+        <v>300</v>
+      </c>
+      <c r="D24" s="25">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="25">
+        <v>10</v>
+      </c>
+      <c r="C25" s="25">
+        <v>200</v>
+      </c>
+      <c r="D25" s="25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="25">
+        <v>3</v>
+      </c>
+      <c r="C26" s="25">
+        <v>20000</v>
+      </c>
+      <c r="D26" s="25">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="25">
+        <v>1</v>
+      </c>
+      <c r="C27" s="25">
+        <v>7000</v>
+      </c>
+      <c r="D27" s="25">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="39" t="s">
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="38">
-        <v>300</v>
-      </c>
-      <c r="C3" s="38">
+      <c r="B37" s="25" t="s">
         <v>50</v>
-      </c>
-      <c r="D3" s="38">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="38">
-        <v>400</v>
-      </c>
-      <c r="C4" s="38">
-        <v>45</v>
-      </c>
-      <c r="D4" s="38">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="38">
-        <v>200</v>
-      </c>
-      <c r="C5" s="38">
-        <v>45</v>
-      </c>
-      <c r="D5" s="38">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="38">
-        <v>100</v>
-      </c>
-      <c r="C6" s="38">
-        <v>30</v>
-      </c>
-      <c r="D6" s="38">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="38">
-        <v>150</v>
-      </c>
-      <c r="C7" s="38">
-        <v>25</v>
-      </c>
-      <c r="D7" s="38">
-        <v>3750</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="38">
-        <v>5</v>
-      </c>
-      <c r="C12" s="38">
-        <v>2500</v>
-      </c>
-      <c r="D12" s="38">
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="38">
-        <v>3</v>
-      </c>
-      <c r="C13" s="38">
-        <v>2000</v>
-      </c>
-      <c r="D13" s="38">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="38">
-        <v>1500</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="38">
-        <v>2500</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="38">
-        <v>5</v>
-      </c>
-      <c r="C24" s="38">
-        <v>300</v>
-      </c>
-      <c r="D24" s="38">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="38">
-        <v>10</v>
-      </c>
-      <c r="C25" s="38">
-        <v>200</v>
-      </c>
-      <c r="D25" s="38">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="38">
-        <v>3</v>
-      </c>
-      <c r="C26" s="38">
-        <v>20000</v>
-      </c>
-      <c r="D26" s="38">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="38">
-        <v>1</v>
-      </c>
-      <c r="C27" s="38">
-        <v>7000</v>
-      </c>
-      <c r="D27" s="38">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="42" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
